--- a/data/fight_card.xlsx
+++ b/data/fight_card.xlsx
@@ -9,21 +9,22 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1566961151" val="966" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1566961151" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1566961151" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1566961151"/>
+      <pm:revision xmlns:pm="smNativeData" day="1567853065" val="966" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1567853065" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1567853065" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1567853065"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>weight_class</t>
   </si>
@@ -34,24 +35,105 @@
     <t>fighter2</t>
   </si>
   <si>
+    <t>Lightweight</t>
+  </si>
+  <si>
+    <t>Khabib Nurmagomedov</t>
+  </si>
+  <si>
+    <t>Dustin Poirier</t>
+  </si>
+  <si>
+    <t>Edson Barboza</t>
+  </si>
+  <si>
+    <t>Paul Felder</t>
+  </si>
+  <si>
+    <t>Islam Makhachev</t>
+  </si>
+  <si>
+    <t>Davi Ramos</t>
+  </si>
+  <si>
+    <t>Heavyweight</t>
+  </si>
+  <si>
+    <t>Curtis Blaydes</t>
+  </si>
+  <si>
+    <t>Shamil Abdurakhimov</t>
+  </si>
+  <si>
+    <t>Mairbek Taisumov</t>
+  </si>
+  <si>
+    <t>Diego Ferreira</t>
+  </si>
+  <si>
+    <t>Women's Flyweight</t>
+  </si>
+  <si>
+    <t>Joanne Calderwood</t>
+  </si>
+  <si>
+    <t>Andrea Lee</t>
+  </si>
+  <si>
+    <t>Women's Bantamweight</t>
+  </si>
+  <si>
+    <t>Liana Jojua</t>
+  </si>
+  <si>
+    <t>Sarah Moras</t>
+  </si>
+  <si>
+    <t>Ottman Azaitar</t>
+  </si>
+  <si>
+    <t>Teemu Packalen</t>
+  </si>
+  <si>
+    <t>Welterweight</t>
+  </si>
+  <si>
+    <t>Belal Muhammad</t>
+  </si>
+  <si>
+    <t>Takashi Sato</t>
+  </si>
+  <si>
+    <t>Nordine Taleb</t>
+  </si>
+  <si>
+    <t>Muslim Salikhov</t>
+  </si>
+  <si>
+    <t>Middleweight</t>
+  </si>
+  <si>
+    <t>Omari Akhmedov</t>
+  </si>
+  <si>
+    <t>Zak Cummings</t>
+  </si>
+  <si>
     <t>Women's Strawweight</t>
   </si>
   <si>
+    <t>Weili Zhang</t>
+  </si>
+  <si>
     <t>Jessica Andrade</t>
   </si>
   <si>
-    <t>Weili Zhang</t>
-  </si>
-  <si>
-    <t>Welterweight</t>
+    <t>Elizeu Zaleski dos Santos</t>
   </si>
   <si>
     <t>Li Jingliang</t>
   </si>
   <si>
-    <t>Elizeu Zaleski dos Santos</t>
-  </si>
-  <si>
     <t>Flyweight</t>
   </si>
   <si>
@@ -61,31 +143,22 @@
     <t>Mark De La Rosa</t>
   </si>
   <si>
-    <t>Women's Flyweight</t>
+    <t>Mizuki Inoue</t>
   </si>
   <si>
     <t>Wu Yanan</t>
   </si>
   <si>
-    <t>Mizuki Inoue</t>
-  </si>
-  <si>
-    <t>Middleweight</t>
+    <t>Israel Adesanya</t>
   </si>
   <si>
     <t>Robert Whittaker</t>
   </si>
   <si>
-    <t>Israel Adesanya</t>
-  </si>
-  <si>
-    <t>Lightweight</t>
-  </si>
-  <si>
-    <t>Khabib Nurmagomedov</t>
-  </si>
-  <si>
-    <t>Dustin Poirier</t>
+    <t>Song Kenan</t>
+  </si>
+  <si>
+    <t>Derrick Krantz</t>
   </si>
 </sst>
 </file>
@@ -110,7 +183,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1566961151" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1567853065" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -125,7 +198,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1566961151" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1567853065" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -134,26 +207,15 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1566961151" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -169,26 +231,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1566961151"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1566961151"/>
+          <pm:border xmlns:pm="smNativeData" id="1567853065"/>
         </ext>
       </extLst>
     </border>
@@ -205,7 +248,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1566961151" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1567853065" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -469,15 +512,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
   <cols>
-    <col min="1" max="1" width="18.687500" customWidth="1"/>
+    <col min="1" max="1" width="20.303571" customWidth="1"/>
     <col min="2" max="2" width="19.696429" customWidth="1"/>
     <col min="3" max="3" width="20.250000" customWidth="1"/>
     <col min="4" max="16384" width="10.000000" customWidth="1"/>
@@ -507,64 +550,120 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
+      <c r="D4"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1566961151" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1567853065" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -573,16 +672,156 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1566961151" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1566961151" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1566961151" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1566961151" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1567853065" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1567853065" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1567853065" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1567853065" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1566961151" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1567853065" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="15.40"/>
+  <cols>
+    <col min="1" max="1" width="18.687500" customWidth="1"/>
+    <col min="2" max="2" width="19.696429" customWidth="1"/>
+    <col min="3" max="3" width="20.250000" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1567853065" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="1.000000" right="1.000000" top="1.000000" bottom="1.000000" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1567853065" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1567853065" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1567853065" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1567853065" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1567853065" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/data/fight_card.xlsx
+++ b/data/fight_card.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1572750901" val="971" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1572750901" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1572750901"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1572750901"/>
+      <pm:revision xmlns:pm="smNativeData" day="1596287657" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1596287657" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1596287657" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1596287657"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>weight_class</t>
   </si>
@@ -34,13 +34,40 @@
     <t>fighter2</t>
   </si>
   <si>
+    <t>Middleweight</t>
+  </si>
+  <si>
+    <t>Edmen Shahbazyan</t>
+  </si>
+  <si>
+    <t>Derek Brunson</t>
+  </si>
+  <si>
+    <t>Women's Flyweight</t>
+  </si>
+  <si>
+    <t>Jennifer Maia</t>
+  </si>
+  <si>
+    <t>Joanne Calderwood</t>
+  </si>
+  <si>
     <t>Welterweight</t>
   </si>
   <si>
-    <t>Stephen Thompson</t>
+    <t>Randy Brown</t>
   </si>
   <si>
     <t>Vicente Luque</t>
+  </si>
+  <si>
+    <t>Lightweight</t>
+  </si>
+  <si>
+    <t>Justin Gaethje</t>
+  </si>
+  <si>
+    <t>Khabib Nurmagomedov</t>
   </si>
 </sst>
 </file>
@@ -65,7 +92,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1572750901" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1596287657" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -74,26 +101,15 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1572750901" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -109,26 +125,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1572750901"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1572750901"/>
+          <pm:border xmlns:pm="smNativeData" id="1596287657"/>
         </ext>
       </extLst>
     </border>
@@ -145,7 +142,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1572750901" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1596287657" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -409,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="B1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -434,10 +431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="n">
-        <v>8</v>
-      </c>
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -447,12 +441,49 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5"/>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1572750901" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1596287657" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -461,16 +492,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1572750901" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1572750901" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1572750901" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1572750901" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1596287657" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1596287657" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1596287657" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1596287657" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1572750901" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1596287657" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/data/fight_card.xlsx
+++ b/data/fight_card.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1596287657" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1596287657" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1596287657" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1596287657"/>
+      <pm:revision xmlns:pm="smNativeData" day="1596333490" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1596333490" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1596333490" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1596333490"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
   <si>
     <t>weight_class</t>
   </si>
@@ -68,6 +68,27 @@
   </si>
   <si>
     <t>Khabib Nurmagomedov</t>
+  </si>
+  <si>
+    <t>Bantamweight</t>
+  </si>
+  <si>
+    <t>Cody Durden</t>
+  </si>
+  <si>
+    <t>Chris Gutierrez</t>
+  </si>
+  <si>
+    <t>FRANKIE SAENZ</t>
+  </si>
+  <si>
+    <t>JONATHAN MARTINEZ</t>
+  </si>
+  <si>
+    <t>Lando Vannata</t>
+  </si>
+  <si>
+    <t>Bobby Green</t>
   </si>
 </sst>
 </file>
@@ -92,7 +113,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1596287657" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1596333490" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -101,15 +122,26 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1596333490" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -125,7 +157,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1596287657"/>
+          <pm:border xmlns:pm="smNativeData" id="1596333490"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1596333490"/>
         </ext>
       </extLst>
     </border>
@@ -142,7 +193,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1596287657" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1596333490" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -406,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E5"/>
+  <dimension ref="B1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -431,7 +482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -441,9 +492,8 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2"/>
-    </row>
-    <row r="3" spans="2:5">
+    </row>
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -453,9 +503,8 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="2:5">
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -465,9 +514,8 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4"/>
-    </row>
-    <row r="5" spans="2:5">
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -477,13 +525,144 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1596287657" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1596333490" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -492,16 +671,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1596287657" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1596287657" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1596287657" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1596287657" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1596333490" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1596333490" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1596333490" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1596333490" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1596287657" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1596333490" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
